--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_45/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_45/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.008894076</t>
+          <t>0.011014388</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.06385121</t>
+          <t>0.061822243</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.006524264</t>
+          <t>0.0061227335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.05485363</t>
+          <t>0.048809793</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.064936295</t>
+          <t>0.057890907</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.19223763</t>
+          <t>0.18048148</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.048767947</t>
+          <t>0.048966948</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.16264673</t>
+          <t>0.1621167</t>
         </is>
       </c>
       <c r="D5" t="n">
